--- a/biology/Médecine/Société_de_la_sclérose_en_plaques_de_Grande-Bretagne/Société_de_la_sclérose_en_plaques_de_Grande-Bretagne.xlsx
+++ b/biology/Médecine/Société_de_la_sclérose_en_plaques_de_Grande-Bretagne/Société_de_la_sclérose_en_plaques_de_Grande-Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_la_scl%C3%A9rose_en_plaques_de_Grande-Bretagne</t>
+          <t>Société_de_la_sclérose_en_plaques_de_Grande-Bretagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société de la sclérose en plaques de Grande-Bretagne et d'Irlande du Nord (Société de la sclérose en plaques) est un organisme de bienfaisance ayant le statut de société de bienfaisance. La Société de la SEP finance des recherches et du soutien pour les personnes atteintes de la sclérose en plaques. La société est actuellement (2012) impliquée dans la Neurological Alliance et d'autres organisations caritatives dans la campagne contre les changements du système de bien-être au Royaume-Uni. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_la_scl%C3%A9rose_en_plaques_de_Grande-Bretagne</t>
+          <t>Société_de_la_sclérose_en_plaques_de_Grande-Bretagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société de la SEP a été fondée en 1953 par Richard Cave, dont l'épouse, Mary, avait la SEP.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_la_scl%C3%A9rose_en_plaques_de_Grande-Bretagne</t>
+          <t>Société_de_la_sclérose_en_plaques_de_Grande-Bretagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société de la SEP est l'organisme de bienfaisance le plus important au Royaume-Uni pour les personnes atteintes de sclérose en plaques (SEP). C'est une organisation d'adhésion, avec environ 32 000 membres (2017), composée de personnes vivant avec la SEP.
 La Société dispose d'un réseau avec plusieurs sections (environ 270) et de 5 500 bénévoles qui aident à sensibiliser la Société et à recueillir des fonds, tant à l'échelle locale que nationale.
